--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medasuedu-my.sharepoint.com/personal/anabhan_med_asu_edu_eg/Documents/Documents/Research/Pap smear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medasuedu-my.sharepoint.com/personal/anabhan_med_asu_edu_eg/Documents/Documents/Research/Pap smear/cytology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4E4110A7-82D7-A348-8FB4-FCF44F8EE0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEDD77A2-307A-1E4E-9F19-C1B0A00A4B40}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4E4110A7-82D7-A348-8FB4-FCF44F8EE0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3848CC52-B7B3-9A4A-B3BC-A4D996EED654}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16740" activeTab="1" xr2:uid="{5BEB23B9-E16B-0B4D-9603-B561A34754D5}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16740" xr2:uid="{5BEB23B9-E16B-0B4D-9603-B561A34754D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="df" sheetId="2" r:id="rId1"/>
+    <sheet name="relfreq" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>LGSIL</t>
   </si>
@@ -78,13 +78,19 @@
     <t>year</t>
   </si>
   <si>
-    <t>Malignant</t>
-  </si>
-  <si>
-    <t>Premalignant</t>
-  </si>
-  <si>
     <t>screened</t>
+  </si>
+  <si>
+    <t>premalignant</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>lgsil</t>
+  </si>
+  <si>
+    <t>hgsil</t>
   </si>
 </sst>
 </file>
@@ -155,16 +161,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{436CB313-6DAD-B74B-B5C7-8EC70FF76093}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowCount="1">
-  <autoFilter ref="A1:C9" xr:uid="{436CB313-6DAD-B74B-B5C7-8EC70FF76093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1FAA42B-79FA-B54F-9210-7E9CC315F781}" name="Table13" displayName="Table13" ref="A1:C10" totalsRowCount="1">
+  <autoFilter ref="A1:C9" xr:uid="{B1FAA42B-79FA-B54F-9210-7E9CC315F781}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition descending="1" ref="C1:C9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E3F529D9-771B-5243-9E62-5EF99E0B94AC}" name="Finding" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{ADFBA83B-22D3-CC42-857A-12A993EE4D3F}" name="Frequency" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{A5E7AF91-3DB4-3846-8B09-76B4FDDB6423}" name="Relative frequency" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5058397B-106A-5948-9858-48C39377A22B}" name="Finding" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{1E057AD1-05BC-D54B-A9FE-587291802831}" name="Frequency" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{E4BCA9C8-FBF9-974E-B044-864A3367EDE3}" name="Relative frequency" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,154 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78653F99-762C-FB46-979E-45302DEE5574}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>89946</v>
-      </c>
-      <c r="C2" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>0.94560555088309506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>4144</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>4.3566021867115223E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>378</v>
-      </c>
-      <c r="C4" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>3.9739276703111863E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>226</v>
-      </c>
-      <c r="C5" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>2.3759461732548361E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>184</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>1.9343986543313709E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>165</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>1.7346509671993273E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>7.3591253153910854E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Table1[[#This Row],[Frequency]]/Table1[[#Totals],[Frequency]]</f>
-        <v>7.3591253153910846E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f>SUBTOTAL(109,Table1[Frequency])</f>
-        <v>95120</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUBTOTAL(109,Table1[Relative frequency])</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7155EC5-90D0-E84C-AAAD-7655CC3299DD}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,19 +487,19 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1482,4 +1345,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF40DE98-7C32-F545-9312-3254B97502FE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>89946</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>0.94560555088309506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4144</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>4.3566021867115223E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>378</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>3.9739276703111863E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>2.3759461732548361E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>184</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>1.9343986543313709E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>1.7346509671993273E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>7.3591253153910854E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table13[[#This Row],[Frequency]]/Table13[[#Totals],[Frequency]]</f>
+        <v>7.3591253153910846E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>SUBTOTAL(109,Table13[Frequency])</f>
+        <v>95120</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUBTOTAL(109,Table13[Relative frequency])</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>